--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_MCS_CustomerUser.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_MCS_CustomerUser.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse-workspace\APT_CreateAccessCoreDevice\src\com\colt\qa\datalibrary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APT_phase1_deliverable24082020\APTAutomationProject\src\com\colt\qa\datalibrary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="296">
   <si>
     <t>Name</t>
   </si>
@@ -478,9 +478,6 @@
     <t>1234515</t>
   </si>
   <si>
-    <t>abc45699.com</t>
-  </si>
-  <si>
     <t>Customer30</t>
   </si>
   <si>
@@ -523,21 +520,12 @@
     <t>usertest@test.com</t>
   </si>
   <si>
-    <t>583098</t>
-  </si>
-  <si>
     <t>594078</t>
   </si>
   <si>
-    <t>IPAccess12345272</t>
-  </si>
-  <si>
     <t>IPAccess12345222</t>
   </si>
   <si>
-    <t>IPaccessServiceID71</t>
-  </si>
-  <si>
     <t>IPaccessServiceID81</t>
   </si>
   <si>
@@ -895,7 +883,31 @@
     <t>Customer3@test.com</t>
   </si>
   <si>
-    <t>abc4569.com</t>
+    <t>maird681.com</t>
+  </si>
+  <si>
+    <t>maird682.com</t>
+  </si>
+  <si>
+    <t>abc4570.com</t>
+  </si>
+  <si>
+    <t>NKACustomer30</t>
+  </si>
+  <si>
+    <t>abc45701.com</t>
+  </si>
+  <si>
+    <t>594081</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>IPAccess123452723</t>
+  </si>
+  <si>
+    <t>IPaccessServiceID7123</t>
   </si>
 </sst>
 </file>
@@ -1459,7 +1471,7 @@
   <dimension ref="A1:CJ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1553,10 +1565,10 @@
   <sheetData>
     <row r="1" spans="1:88" ht="30">
       <c r="A1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>0</v>
@@ -1589,7 +1601,7 @@
         <v>9</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>10</v>
@@ -1802,39 +1814,39 @@
         <v>128</v>
       </c>
       <c r="CF1" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="CG1" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="CH1" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="CI1" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="CJ1" s="9" t="s">
         <v>155</v>
-      </c>
-      <c r="CH1" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="CI1" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="CJ1" s="9" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:88" s="1" customFormat="1">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>153</v>
+        <v>290</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>152</v>
+        <v>291</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>167</v>
+        <v>292</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>64</v>
@@ -1924,7 +1936,7 @@
         <v>54</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>169</v>
+        <v>294</v>
       </c>
       <c r="AK2" s="2" t="s">
         <v>151</v>
@@ -1936,7 +1948,7 @@
         <v>130</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>171</v>
+        <v>295</v>
       </c>
       <c r="AO2" s="2" t="s">
         <v>131</v>
@@ -2068,19 +2080,19 @@
         <v>145</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>40</v>
+        <v>293</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="CH2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="CI2" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="CI2" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="CJ2" s="1" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:88" s="1" customFormat="1">
@@ -2088,10 +2100,10 @@
         <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>149</v>
@@ -2100,7 +2112,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>71</v>
@@ -2127,16 +2139,16 @@
         <v>12</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>73</v>
@@ -2190,7 +2202,7 @@
         <v>54</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AK3" s="2" t="s">
         <v>150</v>
@@ -2202,7 +2214,7 @@
         <v>130</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AO3" s="2" t="s">
         <v>131</v>
@@ -2337,13 +2349,13 @@
         <v>58</v>
       </c>
       <c r="CG3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="CH3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="CI3" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="CI3" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>58</v>
@@ -2354,10 +2366,10 @@
         <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>149</v>
@@ -2366,7 +2378,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>71</v>
@@ -2393,16 +2405,16 @@
         <v>12</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>73</v>
@@ -2456,10 +2468,10 @@
         <v>54</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AK4" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AL4" s="2" t="s">
         <v>129</v>
@@ -2468,7 +2480,7 @@
         <v>130</v>
       </c>
       <c r="AN4" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="AO4" s="2" t="s">
         <v>131</v>
@@ -2603,13 +2615,13 @@
         <v>58</v>
       </c>
       <c r="CG4" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="CH4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="CI4" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="CI4" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="CJ4" s="1" t="s">
         <v>58</v>
@@ -2617,22 +2629,22 @@
     </row>
     <row r="5" spans="1:88" s="1" customFormat="1">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>71</v>
@@ -2659,19 +2671,19 @@
         <v>12</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="T5" s="2" t="s">
         <v>49</v>
@@ -2722,10 +2734,10 @@
         <v>54</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AL5" s="2" t="s">
         <v>129</v>
@@ -2734,7 +2746,7 @@
         <v>130</v>
       </c>
       <c r="AN5" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AO5" s="2" t="s">
         <v>131</v>
@@ -2869,13 +2881,13 @@
         <v>58</v>
       </c>
       <c r="CG5" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="CH5" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="CI5" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="CI5" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="CJ5" s="1" t="s">
         <v>58</v>
@@ -2898,7 +2910,7 @@
   <dimension ref="A1:BJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2969,10 +2981,10 @@
   <sheetData>
     <row r="1" spans="1:62">
       <c r="A1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
@@ -3005,46 +3017,46 @@
         <v>9</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O1" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="S1" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="T1" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="U1" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="V1" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="W1" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="X1" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="Y1" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="Z1" s="15" t="s">
         <v>205</v>
-      </c>
-      <c r="W1" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="X1" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="Y1" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z1" s="15" t="s">
-        <v>209</v>
       </c>
       <c r="AA1" s="17" t="s">
         <v>13</v>
@@ -3092,67 +3104,67 @@
         <v>24</v>
       </c>
       <c r="AP1" s="20" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AQ1" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR1" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS1" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="AT1" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="AU1" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="AR1" s="20" t="s">
+      <c r="AV1" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="AS1" s="20" t="s">
+      <c r="AW1" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="AT1" s="20" t="s">
+      <c r="AX1" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="AU1" s="20" t="s">
+      <c r="AY1" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="AZ1" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="BA1" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB1" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="BC1" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD1" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="AV1" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="AW1" s="20" t="s">
+      <c r="BE1" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="BF1" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="AX1" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="AY1" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="AZ1" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="BA1" s="20" t="s">
+      <c r="BG1" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="BH1" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="BI1" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="BB1" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="BC1" s="20" t="s">
+      <c r="BJ1" s="20" t="s">
         <v>187</v>
-      </c>
-      <c r="BD1" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="BE1" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="BF1" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="BG1" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="BH1" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="BI1" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="BJ1" s="20" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:62">
@@ -3160,19 +3172,19 @@
         <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>287</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>45</v>
@@ -3184,10 +3196,10 @@
         <v>30</v>
       </c>
       <c r="J2" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>31</v>
@@ -3199,7 +3211,7 @@
         <v>59</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="P2" s="16" t="s">
         <v>59</v>
@@ -3235,22 +3247,22 @@
         <v>12</v>
       </c>
       <c r="AA2" s="18" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AB2" s="18" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AC2" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AD2" s="18" t="s">
         <v>35</v>
       </c>
       <c r="AE2" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF2" s="18" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AG2" s="18" t="s">
         <v>36</v>
@@ -3262,7 +3274,7 @@
         <v>39</v>
       </c>
       <c r="AJ2" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AK2" s="18" t="s">
         <v>41</v>
@@ -3271,7 +3283,7 @@
         <v>63</v>
       </c>
       <c r="AM2" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AN2" s="18" t="s">
         <v>61</v>
@@ -3280,19 +3292,19 @@
         <v>25</v>
       </c>
       <c r="AP2" s="21" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AQ2" s="21" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AR2" s="21" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AS2" s="21" t="s">
         <v>35</v>
       </c>
       <c r="AT2" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AU2" s="21" t="s">
         <v>38</v>
@@ -3310,7 +3322,7 @@
         <v>44</v>
       </c>
       <c r="AZ2" s="23" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="BA2" s="21" t="s">
         <v>41</v>
@@ -3322,13 +3334,13 @@
         <v>63</v>
       </c>
       <c r="BD2" s="23" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="BE2" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BF2" s="23" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="BG2" s="21" t="s">
         <v>59</v>
@@ -3345,22 +3357,22 @@
     </row>
     <row r="3" spans="1:62">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>287</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>46</v>
@@ -3372,10 +3384,10 @@
         <v>30</v>
       </c>
       <c r="J3" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>31</v>
@@ -3387,7 +3399,7 @@
         <v>59</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P3" s="16" t="s">
         <v>59</v>
@@ -3399,7 +3411,7 @@
         <v>59</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="T3" s="16" t="s">
         <v>47</v>
@@ -3423,22 +3435,22 @@
         <v>12</v>
       </c>
       <c r="AA3" s="18" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AB3" s="18" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AC3" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AD3" s="18" t="s">
         <v>51</v>
       </c>
       <c r="AE3" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF3" s="18" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AG3" s="18" t="s">
         <v>36</v>
@@ -3450,7 +3462,7 @@
         <v>39</v>
       </c>
       <c r="AJ3" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AK3" s="18" t="s">
         <v>41</v>
@@ -3459,7 +3471,7 @@
         <v>63</v>
       </c>
       <c r="AM3" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AN3" s="18" t="s">
         <v>61</v>
@@ -3468,19 +3480,19 @@
         <v>25</v>
       </c>
       <c r="AP3" s="21" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AQ3" s="21" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AR3" s="21" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AS3" s="21" t="s">
         <v>35</v>
       </c>
       <c r="AT3" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AU3" s="21" t="s">
         <v>38</v>
@@ -3498,7 +3510,7 @@
         <v>44</v>
       </c>
       <c r="AZ3" s="23" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="BA3" s="21" t="s">
         <v>41</v>
@@ -3510,13 +3522,13 @@
         <v>63</v>
       </c>
       <c r="BD3" s="23" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="BE3" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BF3" s="23" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="BG3" s="21" t="s">
         <v>59</v>
@@ -3533,25 +3545,25 @@
     </row>
     <row r="4" spans="1:62">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>59</v>
+        <v>287</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>48</v>
@@ -3560,10 +3572,10 @@
         <v>30</v>
       </c>
       <c r="J4" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>31</v>
@@ -3575,7 +3587,7 @@
         <v>59</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="P4" s="16" t="s">
         <v>59</v>
@@ -3587,7 +3599,7 @@
         <v>59</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="T4" s="16" t="s">
         <v>47</v>
@@ -3611,22 +3623,22 @@
         <v>12</v>
       </c>
       <c r="AA4" s="18" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AB4" s="18" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AC4" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD4" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="AD4" s="18" t="s">
-        <v>250</v>
-      </c>
       <c r="AE4" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF4" s="18" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AG4" s="18" t="s">
         <v>36</v>
@@ -3638,7 +3650,7 @@
         <v>39</v>
       </c>
       <c r="AJ4" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AK4" s="18" t="s">
         <v>41</v>
@@ -3647,7 +3659,7 @@
         <v>63</v>
       </c>
       <c r="AM4" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AN4" s="18" t="s">
         <v>61</v>
@@ -3656,19 +3668,19 @@
         <v>25</v>
       </c>
       <c r="AP4" s="21" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AQ4" s="21" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AR4" s="21" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AS4" s="21" t="s">
         <v>35</v>
       </c>
       <c r="AT4" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AU4" s="21" t="s">
         <v>38</v>
@@ -3686,7 +3698,7 @@
         <v>44</v>
       </c>
       <c r="AZ4" s="23" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="BA4" s="21" t="s">
         <v>41</v>
@@ -3698,13 +3710,13 @@
         <v>63</v>
       </c>
       <c r="BD4" s="23" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="BE4" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BF4" s="23" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="BG4" s="21" t="s">
         <v>59</v>
@@ -3724,22 +3736,22 @@
         <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>288</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>48</v>
@@ -3748,10 +3760,10 @@
         <v>30</v>
       </c>
       <c r="J5" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>31</v>
@@ -3763,7 +3775,7 @@
         <v>59</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P5" s="16" t="s">
         <v>59</v>
@@ -3775,7 +3787,7 @@
         <v>59</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="T5" s="16" t="s">
         <v>47</v>
@@ -3799,22 +3811,22 @@
         <v>12</v>
       </c>
       <c r="AA5" s="18" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AB5" s="18" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AC5" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD5" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="AD5" s="18" t="s">
-        <v>251</v>
-      </c>
       <c r="AE5" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF5" s="18" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AG5" s="18" t="s">
         <v>36</v>
@@ -3826,7 +3838,7 @@
         <v>39</v>
       </c>
       <c r="AJ5" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AK5" s="18" t="s">
         <v>41</v>
@@ -3835,7 +3847,7 @@
         <v>63</v>
       </c>
       <c r="AM5" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AN5" s="18" t="s">
         <v>61</v>
@@ -3844,19 +3856,19 @@
         <v>25</v>
       </c>
       <c r="AP5" s="21" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AQ5" s="21" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AR5" s="21" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AS5" s="21" t="s">
         <v>35</v>
       </c>
       <c r="AT5" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AU5" s="21" t="s">
         <v>38</v>
@@ -3874,7 +3886,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" s="23" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="BA5" s="21" t="s">
         <v>41</v>
@@ -3886,13 +3898,13 @@
         <v>63</v>
       </c>
       <c r="BD5" s="23" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="BE5" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BF5" s="23" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="BG5" s="21" t="s">
         <v>59</v>
@@ -3909,25 +3921,25 @@
     </row>
     <row r="6" spans="1:62">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>287</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>48</v>
@@ -3936,10 +3948,10 @@
         <v>30</v>
       </c>
       <c r="J6" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
@@ -3951,7 +3963,7 @@
         <v>59</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P6" s="16" t="s">
         <v>59</v>
@@ -3963,7 +3975,7 @@
         <v>59</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="T6" s="16" t="s">
         <v>47</v>
@@ -3987,22 +3999,22 @@
         <v>12</v>
       </c>
       <c r="AA6" s="18" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AB6" s="18" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AC6" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="AD6" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="AD6" s="18" t="s">
-        <v>252</v>
-      </c>
       <c r="AE6" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF6" s="18" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AG6" s="18" t="s">
         <v>36</v>
@@ -4014,7 +4026,7 @@
         <v>39</v>
       </c>
       <c r="AJ6" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AK6" s="18" t="s">
         <v>41</v>
@@ -4023,7 +4035,7 @@
         <v>63</v>
       </c>
       <c r="AM6" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AN6" s="18" t="s">
         <v>61</v>
@@ -4032,19 +4044,19 @@
         <v>25</v>
       </c>
       <c r="AP6" s="21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AQ6" s="21" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AR6" s="21" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AS6" s="21" t="s">
         <v>35</v>
       </c>
       <c r="AT6" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AU6" s="21" t="s">
         <v>38</v>
@@ -4062,7 +4074,7 @@
         <v>44</v>
       </c>
       <c r="AZ6" s="23" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="BA6" s="21" t="s">
         <v>41</v>
@@ -4074,13 +4086,13 @@
         <v>63</v>
       </c>
       <c r="BD6" s="23" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="BE6" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BF6" s="23" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="BG6" s="21" t="s">
         <v>59</v>
@@ -4097,25 +4109,25 @@
     </row>
     <row r="7" spans="1:62">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>287</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>48</v>
@@ -4124,10 +4136,10 @@
         <v>30</v>
       </c>
       <c r="J7" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>31</v>
@@ -4139,7 +4151,7 @@
         <v>59</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P7" s="16" t="s">
         <v>59</v>
@@ -4151,7 +4163,7 @@
         <v>59</v>
       </c>
       <c r="S7" s="16" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="T7" s="16" t="s">
         <v>47</v>
@@ -4175,22 +4187,22 @@
         <v>12</v>
       </c>
       <c r="AA7" s="18" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AB7" s="18" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AC7" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="AD7" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="AD7" s="18" t="s">
-        <v>253</v>
-      </c>
       <c r="AE7" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF7" s="18" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AG7" s="18" t="s">
         <v>36</v>
@@ -4202,7 +4214,7 @@
         <v>39</v>
       </c>
       <c r="AJ7" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AK7" s="18" t="s">
         <v>41</v>
@@ -4211,7 +4223,7 @@
         <v>63</v>
       </c>
       <c r="AM7" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AN7" s="18" t="s">
         <v>61</v>
@@ -4220,19 +4232,19 @@
         <v>25</v>
       </c>
       <c r="AP7" s="21" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AQ7" s="21" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AR7" s="21" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AS7" s="21" t="s">
         <v>35</v>
       </c>
       <c r="AT7" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AU7" s="21" t="s">
         <v>38</v>
@@ -4250,7 +4262,7 @@
         <v>44</v>
       </c>
       <c r="AZ7" s="23" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="BA7" s="21" t="s">
         <v>41</v>
@@ -4262,13 +4274,13 @@
         <v>63</v>
       </c>
       <c r="BD7" s="23" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="BE7" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BF7" s="23" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="BG7" s="21" t="s">
         <v>59</v>

--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_MCS_CustomerUser.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_MCS_CustomerUser.xlsx
@@ -13,14 +13,15 @@
   </bookViews>
   <sheets>
     <sheet name="customerUser" sheetId="17" r:id="rId1"/>
-    <sheet name="SupplyService" sheetId="25" r:id="rId2"/>
+    <sheet name="unique column names" sheetId="26" r:id="rId2"/>
+    <sheet name="SupplyService" sheetId="25" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="261">
   <si>
     <t>Name</t>
   </si>
@@ -797,6 +798,12 @@
   </si>
   <si>
     <t>Null</t>
+  </si>
+  <si>
+    <t>Unique Columns</t>
+  </si>
+  <si>
+    <t>should be null or unique</t>
   </si>
 </sst>
 </file>
@@ -1395,16 +1402,16 @@
     <col min="29" max="29" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="24" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="48.42578125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="50" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="48.42578125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="25" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="25" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="20.140625" customWidth="1"/>
     <col min="44" max="44" width="18.140625" bestFit="1" customWidth="1"/>
@@ -1806,7 +1813,7 @@
     </row>
     <row r="3" spans="1:62">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>192</v>
@@ -2558,7 +2565,7 @@
     </row>
     <row r="7" spans="1:62">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
         <v>192</v>
@@ -2567,7 +2574,7 @@
         <v>221</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>212</v>
+        <v>258</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
@@ -2773,10 +2780,74 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="25" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3934,7 +4005,7 @@
     </row>
     <row r="5" spans="1:88" s="1" customFormat="1">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
         <v>192</v>
